--- a/Piackutatás.xlsx
+++ b/Piackutatás.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>https://neptun.szte.hu/</t>
   </si>
@@ -25,13 +25,22 @@
     <t>https://moodle.org/?lang=hu</t>
   </si>
   <si>
+    <t>Neptun (régi)</t>
+  </si>
+  <si>
+    <t>Neptun (új)</t>
+  </si>
+  <si>
+    <t>ETR</t>
+  </si>
+  <si>
+    <t>Moodle</t>
+  </si>
+  <si>
     <t>Funkciók</t>
   </si>
   <si>
     <t>- Email küldése</t>
-  </si>
-  <si>
-    <t>Neptun (régi)</t>
   </si>
   <si>
     <t>- Email küldése
@@ -49,7 +58,7 @@
 - Értesítések küldése
 - Haladáskövetés
 - API támogatás
-- E-learning tartalom beágyazása
+- Hírek és egyéb információk
 - Többnyelvűség</t>
   </si>
   <si>
@@ -60,9 +69,6 @@
 /Kommunikáció</t>
   </si>
   <si>
-    <t>Neptun (új)</t>
-  </si>
-  <si>
     <t>https://www.surveymonkey.com/</t>
   </si>
   <si>
@@ -70,16 +76,10 @@
 </t>
   </si>
   <si>
-    <t>ETR</t>
-  </si>
-  <si>
     <t>https://www.sogosurvey.com/</t>
   </si>
   <si>
     <t>- Órarend megtekintése</t>
-  </si>
-  <si>
-    <t>Moodle</t>
   </si>
   <si>
     <t>https://www.clientheartbeat.com/</t>
@@ -122,7 +122,7 @@
     <t>- API támogatás</t>
   </si>
   <si>
-    <t>- E-learning tartalom beágyazása</t>
+    <t>- Hírek és egyéb információk</t>
   </si>
   <si>
     <t>- Többnyelvűség</t>
@@ -319,10 +319,10 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -634,10 +634,18 @@
     <row r="2">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G2" s="7"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -645,10 +653,10 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" s="11" t="b">
         <v>1</v>
@@ -664,19 +672,19 @@
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16"/>
       <c r="B4" s="17" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" s="12" t="b">
         <v>1</v>
@@ -692,17 +700,17 @@
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="20" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="16"/>
       <c r="B5" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="12" t="b">
         <v>1</v>
@@ -718,17 +726,17 @@
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="13" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16"/>
       <c r="B6" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="18" t="b">
         <v>1</v>
@@ -744,7 +752,7 @@
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="23" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="21" t="s">
@@ -978,14 +986,14 @@
       <c r="B17" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="12" t="b">
-        <v>0</v>
+      <c r="C17" s="18" t="b">
+        <v>1</v>
       </c>
       <c r="D17" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="12" t="b">
         <v>1</v>
